--- a/supervised-learning/charts/Weka-Parameters-Breast-Cancer.xlsx
+++ b/supervised-learning/charts/Weka-Parameters-Breast-Cancer.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rohanrk/Desktop/College_Documents/Georgia Tech/Courses/Spring 2019/CS 4641/Assignment 1 - Supervised Learning/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rohanrk/Desktop/College_Documents/Georgia Tech/Courses/Spring 2019/CS 4641/Machine-Learning-4641/supervised-learning/charts/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3920" yWindow="1560" windowWidth="24880" windowHeight="16720" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="3760" yWindow="500" windowWidth="24880" windowHeight="16720" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="J48 (Decision Tree)" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="34">
   <si>
     <t>Confidence Factor</t>
   </si>
@@ -411,11 +411,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1277989376"/>
-        <c:axId val="-1277985344"/>
+        <c:axId val="771135488"/>
+        <c:axId val="767199424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1277989376"/>
+        <c:axId val="771135488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -527,7 +527,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1277985344"/>
+        <c:crossAx val="767199424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -535,7 +535,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1277985344"/>
+        <c:axId val="767199424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -641,7 +641,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1277989376"/>
+        <c:crossAx val="771135488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -903,11 +903,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1277963856"/>
-        <c:axId val="-1277959824"/>
+        <c:axId val="770357648"/>
+        <c:axId val="767198272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1277963856"/>
+        <c:axId val="770357648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1024,7 +1024,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1277959824"/>
+        <c:crossAx val="767198272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1032,7 +1032,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1277959824"/>
+        <c:axId val="767198272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1138,7 +1138,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1277963856"/>
+        <c:crossAx val="770357648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1405,11 +1405,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1283089104"/>
-        <c:axId val="-1283042720"/>
+        <c:axId val="767093232"/>
+        <c:axId val="767096624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1283089104"/>
+        <c:axId val="767093232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1526,7 +1526,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1283042720"/>
+        <c:crossAx val="767096624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1534,7 +1534,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1283042720"/>
+        <c:axId val="767096624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1640,7 +1640,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1283089104"/>
+        <c:crossAx val="767093232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1768,6 +1768,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1910,11 +1911,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1282909152"/>
-        <c:axId val="-1282905120"/>
+        <c:axId val="766662896"/>
+        <c:axId val="766666288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1282909152"/>
+        <c:axId val="766662896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1965,6 +1966,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2031,7 +2033,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1282905120"/>
+        <c:crossAx val="766666288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2039,7 +2041,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1282905120"/>
+        <c:axId val="766666288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2085,6 +2087,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2145,7 +2148,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1282909152"/>
+        <c:crossAx val="766662896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2159,6 +2162,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2609,11 +2613,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1282865120"/>
-        <c:axId val="-1282861088"/>
+        <c:axId val="771978096"/>
+        <c:axId val="771982128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1282865120"/>
+        <c:axId val="771978096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2712,7 +2716,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1282861088"/>
+        <c:crossAx val="771982128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2720,7 +2724,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1282861088"/>
+        <c:axId val="771982128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2802,7 +2806,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1282865120"/>
+        <c:crossAx val="771978096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7079,7 +7083,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
@@ -7646,10 +7650,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="87" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" zoomScalePageLayoutView="87" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8033,31 +8037,31 @@
         <v>0.1</v>
       </c>
       <c r="C14">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D14">
-        <v>600</v>
+        <v>50</v>
       </c>
       <c r="E14" t="s">
         <v>17</v>
       </c>
       <c r="F14">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="G14" s="1">
-        <v>0.69346699999999994</v>
+        <v>0.73869300000000004</v>
       </c>
       <c r="H14">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="I14" s="1">
-        <v>0.306533</v>
+        <v>0.26130700000000001</v>
       </c>
       <c r="J14">
-        <v>0.31940000000000002</v>
+        <v>0.29959999999999998</v>
       </c>
       <c r="K14">
-        <v>0.5161</v>
+        <v>0.439</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -8065,31 +8069,31 @@
         <v>0.1</v>
       </c>
       <c r="C15">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D15">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="E15" t="s">
         <v>17</v>
       </c>
       <c r="F15">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G15" s="1">
-        <v>0.688442</v>
+        <v>0.73869300000000004</v>
       </c>
       <c r="H15">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I15" s="1">
-        <v>0.311558</v>
+        <v>0.26130700000000001</v>
       </c>
       <c r="J15">
-        <v>0.31879999999999997</v>
+        <v>0.3029</v>
       </c>
       <c r="K15">
-        <v>0.51690000000000003</v>
+        <v>0.45800000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -8097,31 +8101,31 @@
         <v>0.1</v>
       </c>
       <c r="C16">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D16">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="E16" t="s">
         <v>17</v>
       </c>
       <c r="F16">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G16" s="1">
-        <v>0.688442</v>
+        <v>0.698492</v>
       </c>
       <c r="H16">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="1">
-        <v>0.311558</v>
+        <v>0.301508</v>
       </c>
       <c r="J16">
-        <v>0.31840000000000002</v>
+        <v>0.31080000000000002</v>
       </c>
       <c r="K16">
-        <v>0.51759999999999995</v>
+        <v>0.49130000000000001</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
@@ -8129,31 +8133,31 @@
         <v>0.1</v>
       </c>
       <c r="C17">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D17">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="E17" t="s">
         <v>17</v>
       </c>
       <c r="F17">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G17" s="1">
-        <v>0.688442</v>
+        <v>0.70351799999999998</v>
       </c>
       <c r="H17">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I17" s="1">
-        <v>0.311558</v>
+        <v>0.29648200000000002</v>
       </c>
       <c r="J17">
-        <v>0.31809999999999999</v>
+        <v>0.31109999999999999</v>
       </c>
       <c r="K17">
-        <v>0.5181</v>
+        <v>0.50229999999999997</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
@@ -8161,31 +8165,63 @@
         <v>0.1</v>
       </c>
       <c r="C18">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D18">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="E18" t="s">
         <v>17</v>
       </c>
       <c r="F18">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G18" s="1">
-        <v>0.68341700000000005</v>
+        <v>0.70351799999999998</v>
       </c>
       <c r="H18">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I18" s="1">
-        <v>0.316583</v>
+        <v>0.29648200000000002</v>
       </c>
       <c r="J18">
-        <v>0.31780000000000003</v>
+        <v>0.31269999999999998</v>
       </c>
       <c r="K18">
-        <v>0.51859999999999995</v>
+        <v>0.50549999999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>0.1</v>
+      </c>
+      <c r="C19">
+        <v>0.2</v>
+      </c>
+      <c r="D19">
+        <v>500</v>
+      </c>
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19">
+        <v>139</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.698492</v>
+      </c>
+      <c r="H19">
+        <v>60</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.301508</v>
+      </c>
+      <c r="J19">
+        <v>0.3201</v>
+      </c>
+      <c r="K19">
+        <v>0.51480000000000004</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
@@ -8193,31 +8229,31 @@
         <v>0.1</v>
       </c>
       <c r="C20">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="D20">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E20" t="s">
         <v>17</v>
       </c>
       <c r="F20">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G20" s="1">
-        <v>0.698492</v>
+        <v>0.69346699999999994</v>
       </c>
       <c r="H20">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I20" s="1">
-        <v>0.301508</v>
+        <v>0.306533</v>
       </c>
       <c r="J20">
-        <v>0.31269999999999998</v>
+        <v>0.31940000000000002</v>
       </c>
       <c r="K20">
-        <v>0.50660000000000005</v>
+        <v>0.5161</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
@@ -8225,31 +8261,31 @@
         <v>0.1</v>
       </c>
       <c r="C21">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="D21">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E21" t="s">
         <v>17</v>
       </c>
       <c r="F21">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G21" s="1">
-        <v>0.71356799999999998</v>
+        <v>0.688442</v>
       </c>
       <c r="H21">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="I21" s="1">
-        <v>0.28643200000000002</v>
+        <v>0.311558</v>
       </c>
       <c r="J21">
-        <v>0.31069999999999998</v>
+        <v>0.31879999999999997</v>
       </c>
       <c r="K21">
-        <v>0.50560000000000005</v>
+        <v>0.51690000000000003</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
@@ -8257,31 +8293,31 @@
         <v>0.1</v>
       </c>
       <c r="C22">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="D22">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E22" t="s">
         <v>17</v>
       </c>
       <c r="F22">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G22" s="1">
-        <v>0.70351799999999998</v>
+        <v>0.688442</v>
       </c>
       <c r="H22">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I22" s="1">
-        <v>0.29648200000000002</v>
+        <v>0.311558</v>
       </c>
       <c r="J22">
-        <v>0.32150000000000001</v>
+        <v>0.31840000000000002</v>
       </c>
       <c r="K22">
-        <v>0.51349999999999996</v>
+        <v>0.51759999999999995</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
@@ -8289,31 +8325,31 @@
         <v>0.1</v>
       </c>
       <c r="C23">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="D23">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="E23" t="s">
         <v>17</v>
       </c>
       <c r="F23">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G23" s="1">
-        <v>0.67336700000000005</v>
+        <v>0.688442</v>
       </c>
       <c r="H23">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I23" s="1">
-        <v>0.32663300000000001</v>
+        <v>0.311558</v>
       </c>
       <c r="J23">
-        <v>0.33310000000000001</v>
+        <v>0.31809999999999999</v>
       </c>
       <c r="K23">
-        <v>0.52900000000000003</v>
+        <v>0.5181</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
@@ -8321,63 +8357,31 @@
         <v>0.1</v>
       </c>
       <c r="C24">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="D24">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E24" t="s">
         <v>17</v>
       </c>
       <c r="F24">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="G24" s="1">
-        <v>0.65326600000000001</v>
+        <v>0.68341700000000005</v>
       </c>
       <c r="H24">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="I24" s="1">
-        <v>0.34673399999999999</v>
+        <v>0.316583</v>
       </c>
       <c r="J24">
-        <v>0.34720000000000001</v>
+        <v>0.31780000000000003</v>
       </c>
       <c r="K24">
-        <v>0.53800000000000003</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B25">
-        <v>0.1</v>
-      </c>
-      <c r="C25">
-        <v>0.8</v>
-      </c>
-      <c r="D25">
-        <v>500</v>
-      </c>
-      <c r="E25" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25">
-        <v>137</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0.688442</v>
-      </c>
-      <c r="H25">
-        <v>62</v>
-      </c>
-      <c r="I25" s="1">
-        <v>0.311558</v>
-      </c>
-      <c r="J25">
-        <v>0.3165</v>
-      </c>
-      <c r="K25">
-        <v>0.52159999999999995</v>
+        <v>0.51859999999999995</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
@@ -8385,7 +8389,7 @@
         <v>0.1</v>
       </c>
       <c r="C26">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="D26">
         <v>500</v>
@@ -8394,22 +8398,22 @@
         <v>17</v>
       </c>
       <c r="F26">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="G26" s="1">
-        <v>0.65326600000000001</v>
+        <v>0.698492</v>
       </c>
       <c r="H26">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="I26" s="1">
-        <v>0.34673399999999999</v>
+        <v>0.301508</v>
       </c>
       <c r="J26">
-        <v>0.34939999999999999</v>
+        <v>0.31269999999999998</v>
       </c>
       <c r="K26">
-        <v>0.55700000000000005</v>
+        <v>0.50660000000000005</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.2">
@@ -8417,7 +8421,7 @@
         <v>0.1</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="D27">
         <v>500</v>
@@ -8426,22 +8430,54 @@
         <v>17</v>
       </c>
       <c r="F27">
+        <v>142</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.71356799999999998</v>
+      </c>
+      <c r="H27">
+        <v>57</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0.28643200000000002</v>
+      </c>
+      <c r="J27">
+        <v>0.31069999999999998</v>
+      </c>
+      <c r="K27">
+        <v>0.50560000000000005</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>0.1</v>
+      </c>
+      <c r="C28">
+        <v>0.5</v>
+      </c>
+      <c r="D28">
+        <v>500</v>
+      </c>
+      <c r="E28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28">
         <v>140</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G28" s="1">
         <v>0.70351799999999998</v>
       </c>
-      <c r="H27">
+      <c r="H28">
         <v>59</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I28" s="1">
         <v>0.29648200000000002</v>
       </c>
-      <c r="J27">
-        <v>0.29649999999999999</v>
-      </c>
-      <c r="K27">
-        <v>0.54449999999999998</v>
+      <c r="J28">
+        <v>0.32150000000000001</v>
+      </c>
+      <c r="K28">
+        <v>0.51349999999999996</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.2">
@@ -8449,31 +8485,31 @@
         <v>0.1</v>
       </c>
       <c r="C29">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D29">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E29" t="s">
         <v>17</v>
       </c>
       <c r="F29">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="G29" s="1">
-        <v>0.70351799999999998</v>
+        <v>0.67336700000000005</v>
       </c>
       <c r="H29">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I29" s="1">
-        <v>0.29648200000000002</v>
+        <v>0.32663300000000001</v>
       </c>
       <c r="J29">
-        <v>0.31269999999999998</v>
+        <v>0.33310000000000001</v>
       </c>
       <c r="K29">
-        <v>0.50549999999999995</v>
+        <v>0.52900000000000003</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.2">
@@ -8481,31 +8517,31 @@
         <v>0.1</v>
       </c>
       <c r="C30">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="D30">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E30" t="s">
         <v>17</v>
       </c>
       <c r="F30">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="G30" s="1">
-        <v>0.70351799999999998</v>
+        <v>0.65326600000000001</v>
       </c>
       <c r="H30">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="I30" s="1">
-        <v>0.29648200000000002</v>
+        <v>0.34673399999999999</v>
       </c>
       <c r="J30">
-        <v>0.31109999999999999</v>
+        <v>0.34720000000000001</v>
       </c>
       <c r="K30">
-        <v>0.50229999999999997</v>
+        <v>0.53800000000000003</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.2">
@@ -8513,31 +8549,31 @@
         <v>0.1</v>
       </c>
       <c r="C31">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D31">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E31" t="s">
         <v>17</v>
       </c>
       <c r="F31">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G31" s="1">
-        <v>0.698492</v>
+        <v>0.688442</v>
       </c>
       <c r="H31">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I31" s="1">
-        <v>0.301508</v>
+        <v>0.311558</v>
       </c>
       <c r="J31">
-        <v>0.31080000000000002</v>
+        <v>0.3165</v>
       </c>
       <c r="K31">
-        <v>0.49130000000000001</v>
+        <v>0.52159999999999995</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.2">
@@ -8545,31 +8581,31 @@
         <v>0.1</v>
       </c>
       <c r="C32">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="D32">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E32" t="s">
         <v>17</v>
       </c>
       <c r="F32">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="G32" s="1">
-        <v>0.73869300000000004</v>
+        <v>0.65326600000000001</v>
       </c>
       <c r="H32">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="I32" s="1">
-        <v>0.26130700000000001</v>
+        <v>0.34673399999999999</v>
       </c>
       <c r="J32">
-        <v>0.3029</v>
+        <v>0.34939999999999999</v>
       </c>
       <c r="K32">
-        <v>0.45800000000000002</v>
+        <v>0.55700000000000005</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
@@ -8577,79 +8613,102 @@
         <v>0.1</v>
       </c>
       <c r="C33">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="D33">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="E33" t="s">
         <v>17</v>
       </c>
       <c r="F33">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="G33" s="1">
-        <v>0.73869300000000004</v>
+        <v>0.70351799999999998</v>
       </c>
       <c r="H33">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="I33" s="1">
-        <v>0.26130700000000001</v>
+        <v>0.29648200000000002</v>
       </c>
       <c r="J33">
-        <v>0.29959999999999998</v>
+        <v>0.29649999999999999</v>
       </c>
       <c r="K33">
-        <v>0.439</v>
+        <v>0.54449999999999998</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="G35" s="1"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G36" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G37" s="1"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G38" s="1"/>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G39" s="1"/>
+      <c r="I39" s="1"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
         <v>12</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C42" t="s">
         <v>18</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D42" t="s">
         <v>13</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E42" t="s">
         <v>16</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F42" t="s">
         <v>14</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G42" t="s">
         <v>15</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H42" t="s">
         <v>5</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I42" t="s">
         <v>8</v>
       </c>
-      <c r="J36" t="s">
+      <c r="J42" t="s">
         <v>6</v>
       </c>
-      <c r="K36" t="s">
+      <c r="K42" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B37">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B43">
         <v>0.1</v>
       </c>
-      <c r="C37">
+      <c r="C43">
         <v>0.2</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="B29:K33">
+    <sortCondition ref="D29:D33"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9501,7 +9560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>

--- a/supervised-learning/charts/Weka-Parameters-Breast-Cancer.xlsx
+++ b/supervised-learning/charts/Weka-Parameters-Breast-Cancer.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3760" yWindow="500" windowWidth="24880" windowHeight="16720" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="2840" yWindow="1140" windowWidth="24880" windowHeight="16720" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="J48 (Decision Tree)" sheetId="1" r:id="rId1"/>
@@ -411,11 +411,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="771135488"/>
-        <c:axId val="767199424"/>
+        <c:axId val="775180112"/>
+        <c:axId val="766042816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="771135488"/>
+        <c:axId val="775180112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -527,7 +527,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="767199424"/>
+        <c:crossAx val="766042816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -535,7 +535,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="767199424"/>
+        <c:axId val="766042816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -641,7 +641,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="771135488"/>
+        <c:crossAx val="775180112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -903,11 +903,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="770357648"/>
-        <c:axId val="767198272"/>
+        <c:axId val="776422848"/>
+        <c:axId val="837838560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="770357648"/>
+        <c:axId val="776422848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1024,7 +1024,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="767198272"/>
+        <c:crossAx val="837838560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1032,7 +1032,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="767198272"/>
+        <c:axId val="837838560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1138,7 +1138,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="770357648"/>
+        <c:crossAx val="776422848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1405,11 +1405,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="767093232"/>
-        <c:axId val="767096624"/>
+        <c:axId val="771505072"/>
+        <c:axId val="773816224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="767093232"/>
+        <c:axId val="771505072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1526,7 +1526,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="767096624"/>
+        <c:crossAx val="773816224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1534,7 +1534,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="767096624"/>
+        <c:axId val="773816224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1640,7 +1640,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="767093232"/>
+        <c:crossAx val="771505072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1768,7 +1768,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1911,11 +1910,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="766662896"/>
-        <c:axId val="766666288"/>
+        <c:axId val="864224896"/>
+        <c:axId val="835738448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="766662896"/>
+        <c:axId val="864224896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1966,7 +1965,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2033,7 +2031,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="766666288"/>
+        <c:crossAx val="835738448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2041,7 +2039,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="766666288"/>
+        <c:axId val="835738448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2087,7 +2085,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2148,7 +2145,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="766662896"/>
+        <c:crossAx val="864224896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2162,7 +2159,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2264,13 +2260,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Error vs Number of</a:t>
+              <a:t>Multilayer Perceptron Network</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Neighbors</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2313,9 +2304,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>No Weight</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -2330,274 +2318,84 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>KNN!$B$3:$B$12</c:f>
+              <c:f>'Neural Net'!$D$14:$D$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>300.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>400.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>600.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>700.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>800.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>900.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>KNN!$G$3:$G$12</c:f>
+              <c:f>'Neural Net'!$G$14:$G$24</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.266332</c:v>
+                  <c:v>0.738693</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.266332</c:v>
+                  <c:v>0.738693</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.261307</c:v>
+                  <c:v>0.698492</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.256281</c:v>
+                  <c:v>0.703518</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.246231</c:v>
+                  <c:v>0.703518</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.251256</c:v>
+                  <c:v>0.698492</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.266332</c:v>
+                  <c:v>0.693467</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.266332</c:v>
+                  <c:v>0.688442</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.261307</c:v>
+                  <c:v>0.688442</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.256281</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Weight by 1/Distance</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>KNN!$B$3:$B$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>KNN!$G$14:$G$23</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.266332</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.261307</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.266332</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.256281</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.246231</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.246231</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.256281</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.256281</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.251256</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.246231</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Weight by 1 - Distance</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>KNN!$B$3:$B$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>KNN!$G$25:$G$34</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.266332</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.256281</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.261307</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.251256</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.241206</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.241206</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.251256</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.251256</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.241206</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.236181</c:v>
+                  <c:v>0.688442</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.683417</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2613,16 +2411,30 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="771978096"/>
-        <c:axId val="771982128"/>
+        <c:axId val="766615328"/>
+        <c:axId val="777334512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="771978096"/>
+        <c:axId val="766615328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -2644,12 +2456,19 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Number of Neighbors</a:t>
+                  <a:t>Training Iterations</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.520583359122619"/>
+              <c:y val="0.873295607277405"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2716,7 +2535,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="771982128"/>
+        <c:crossAx val="777334512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2724,7 +2543,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="771982128"/>
+        <c:axId val="777334512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2745,6 +2564,31 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
@@ -2806,7 +2650,630 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="771978096"/>
+        <c:crossAx val="766615328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Error vs Number of</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Neighbors</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>No Weight</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>KNN!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>KNN!$G$3:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.266332</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.266332</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.261307</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.256281</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.246231</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.251256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.266332</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.266332</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.261307</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.256281</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Weight by 1/Distance</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>KNN!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>KNN!$G$14:$G$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.266332</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.261307</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.266332</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.256281</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.246231</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.246231</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.256281</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.256281</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.251256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.246231</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Weight by 1 - Distance</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>KNN!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>KNN!$G$25:$G$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.266332</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.256281</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.261307</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.251256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.241206</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.241206</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.251256</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.251256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.241206</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.236181</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="836073776"/>
+        <c:axId val="777263760"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="836073776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Neighbors</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="777263760"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="777263760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="836073776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2820,7 +3287,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3087,6 +3553,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -5152,6 +5658,522 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5793,6 +6815,41 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>458368</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>197652</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1532619</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>68620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7652,8 +8709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" zoomScalePageLayoutView="87" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="C28" zoomScale="108" zoomScaleNormal="87" zoomScalePageLayoutView="87" workbookViewId="0">
+      <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8710,6 +9767,8 @@
     <sortCondition ref="D29:D33"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
